--- a/step5-Statistic.xlsx
+++ b/step5-Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591579B-21C8-419C-8337-7494E88E61C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA62D87-C886-44D9-91A3-8CE5FA8FD3E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,10 +261,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:Z721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5:X5"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,24 +656,24 @@
       <c r="P1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -713,24 +713,24 @@
         <v>73</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>_xlfn.STDEV.S(F2:F31)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f>AVERAGE(F2:F31)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="5">
-        <f>P2-1.96*O2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5">
-        <f>P2+1.96*O2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="5"/>
+      <c r="Q2" s="6">
+        <f>P2-2.045*O2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6">
+        <f>P2+2.045*O2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="6"/>
       <c r="U2" s="3">
         <f>_xlfn.STDEV.S(E2:E31)</f>
         <v>0</v>
@@ -739,16 +739,16 @@
         <f>AVERAGE(E2:E31)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="5">
-        <f>V2-1.96*U2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5">
-        <f>V2+1.96*U2/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5"/>
+      <c r="W2" s="6">
+        <f>V2-2.045*U2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6">
+        <f>V2+2.045*U2/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -788,24 +788,24 @@
         <v>74</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f>_xlfn.STDEV.S(F32:F61)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <f>AVERAGE(F32:F61)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="5">
-        <f>P3-1.96*O3/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5">
-        <f>P3+1.96*O3/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="5"/>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q25" si="0">P3-2.045*O3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S25" si="1">P3+2.045*O3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6"/>
       <c r="U3" s="3">
         <f>_xlfn.STDEV.S(E32:E61)</f>
         <v>0</v>
@@ -814,16 +814,16 @@
         <f>AVERAGE(E32:E61)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="5">
-        <f>V3-1.96*U3/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5">
-        <f>V3+1.96*U3/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5"/>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W25" si="2">V3-2.045*U3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y25" si="3">V3+2.045*U3/SQRT(30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -863,24 +863,24 @@
         <v>75</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f>_xlfn.STDEV.S(F62:F91)</f>
         <v>0.90357520410929537</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f>AVERAGE(F62:F91)</f>
         <v>1.7790905758575768</v>
       </c>
-      <c r="Q4" s="5">
-        <f>P4-1.96*O4/SQRT(30)</f>
-        <v>1.4557503416848196</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5">
-        <f>P4+1.96*O4/SQRT(30)</f>
-        <v>2.1024308100303339</v>
-      </c>
-      <c r="T4" s="5"/>
+      <c r="Q4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4417279335701847</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1164532181449687</v>
+      </c>
+      <c r="T4" s="6"/>
       <c r="U4" s="3">
         <f>_xlfn.STDEV.S(E62:E91)</f>
         <v>3.1872742273167387</v>
@@ -889,16 +889,16 @@
         <f>AVERAGE(E62:E91)</f>
         <v>7.5885178804135949</v>
       </c>
-      <c r="W4" s="5">
-        <f>V4-1.96*U4/SQRT(30)</f>
-        <v>6.4479664461261939</v>
-      </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5">
-        <f>V4+1.96*U4/SQRT(30)</f>
-        <v>8.7290693147009968</v>
-      </c>
-      <c r="Z4" s="5"/>
+      <c r="W4" s="6">
+        <f t="shared" si="2"/>
+        <v>6.398503756373934</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6">
+        <f t="shared" si="3"/>
+        <v>8.7785320044532558</v>
+      </c>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -938,24 +938,24 @@
         <v>76</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <f>_xlfn.STDEV.S(F92:F121)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f>AVERAGE(F92:F121)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
-        <f>P5-1.96*O5/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5">
-        <f>P5+1.96*O5/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="5"/>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="3">
         <f>_xlfn.STDEV.S(E92:E121)</f>
         <v>0</v>
@@ -964,16 +964,16 @@
         <f>AVERAGE(E92:E121)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="5">
-        <f>V5-1.96*U5/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5">
-        <f>V5+1.96*U5/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5"/>
+      <c r="W5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1013,24 +1013,24 @@
         <v>77</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f>_xlfn.STDEV.S(F122:F151)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f>AVERAGE(F122:F151)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="5">
-        <f>P6-1.96*O6/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
-        <f>P6+1.96*O6/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="T6" s="5"/>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="6"/>
       <c r="U6" s="3">
         <f>_xlfn.STDEV.S(E122:E151)</f>
         <v>5.0826660833392239E-15</v>
@@ -1039,16 +1039,16 @@
         <f>AVERAGE(E122:E151)</f>
         <v>1.0000000000000051</v>
       </c>
-      <c r="W6" s="5">
-        <f>V6-1.96*U6/SQRT(30)</f>
-        <v>1.0000000000000033</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5">
-        <f>V6+1.96*U6/SQRT(30)</f>
-        <v>1.0000000000000069</v>
-      </c>
-      <c r="Z6" s="5"/>
+      <c r="W6" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000031</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000071</v>
+      </c>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1096,16 +1096,16 @@
         <f>AVERAGE(F152:F181)</f>
         <v>2.7790905758575764</v>
       </c>
-      <c r="Q7" s="5">
-        <f>P7-1.96*O7/SQRT(30)</f>
-        <v>2.4557503416848196</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5">
-        <f>P7+1.96*O7/SQRT(30)</f>
-        <v>3.1024308100303331</v>
-      </c>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4417279335701849</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1164532181449678</v>
+      </c>
+      <c r="T7" s="6"/>
       <c r="U7" s="3">
         <f>_xlfn.STDEV.S(E152:E181)</f>
         <v>3.1872742273167436</v>
@@ -1114,16 +1114,16 @@
         <f>AVERAGE(E152:E181)</f>
         <v>8.588517880413594</v>
       </c>
-      <c r="W7" s="5">
-        <f>V7-1.96*U7/SQRT(30)</f>
-        <v>7.4479664461261912</v>
-      </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5">
-        <f>V7+1.96*U7/SQRT(30)</f>
-        <v>9.7290693147009968</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="W7" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3985037563739313</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6">
+        <f t="shared" si="3"/>
+        <v>9.7785320044532575</v>
+      </c>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1171,16 +1171,16 @@
         <f>AVERAGE(F182:F211)</f>
         <v>1.5268209059841311</v>
       </c>
-      <c r="Q8" s="5">
-        <f>P8-1.96*O8/SQRT(30)</f>
-        <v>1.2969637076804952</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5">
-        <f>P8+1.96*O8/SQRT(30)</f>
-        <v>1.7566781042877671</v>
-      </c>
-      <c r="T8" s="5"/>
+      <c r="Q8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2869954108152866</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7666464011529757</v>
+      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="3">
         <f>_xlfn.STDEV.S(E182:E211)</f>
         <v>1.5643258602825902</v>
@@ -1189,16 +1189,16 @@
         <f>AVERAGE(E182:E211)</f>
         <v>5.1799320157931303</v>
       </c>
-      <c r="W8" s="5">
-        <f>V8-1.96*U8/SQRT(30)</f>
-        <v>4.6201451959623698</v>
-      </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5">
-        <f>V8+1.96*U8/SQRT(30)</f>
-        <v>5.7397188356238908</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="W8" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5958687267350156</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6">
+        <f t="shared" si="3"/>
+        <v>5.7639953048512451</v>
+      </c>
+      <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1246,16 +1246,16 @@
         <f>AVERAGE(F212:F241)</f>
         <v>2.0687247440691268</v>
       </c>
-      <c r="Q9" s="5">
-        <f>P9-1.96*O9/SQRT(30)</f>
-        <v>1.3498120783534491</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5">
-        <f>P9+1.96*O9/SQRT(30)</f>
-        <v>2.7876374097848045</v>
-      </c>
-      <c r="T9" s="5"/>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3186347433606773</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8188147447775762</v>
+      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="3">
         <f>_xlfn.STDEV.S(E212:E241)</f>
         <v>3.3316295508719529</v>
@@ -1264,16 +1264,16 @@
         <f>AVERAGE(E212:E241)</f>
         <v>6.2605294244121392</v>
       </c>
-      <c r="W9" s="5">
-        <f>V9-1.96*U9/SQRT(30)</f>
-        <v>5.0683211010134013</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5">
-        <f>V9+1.96*U9/SQRT(30)</f>
-        <v>7.4527377478108772</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="W9" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0166181890292725</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6">
+        <f t="shared" si="3"/>
+        <v>7.504440659795006</v>
+      </c>
+      <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1321,16 +1321,16 @@
         <f>AVERAGE(F242:F271)</f>
         <v>1.5666571520273631</v>
       </c>
-      <c r="Q10" s="5">
-        <f>P10-1.96*O10/SQRT(30)</f>
-        <v>1.1412164596161838</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5">
-        <f>P10+1.96*O10/SQRT(30)</f>
-        <v>1.9920978444385424</v>
-      </c>
-      <c r="T10" s="5"/>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1227662255065154</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.010548078548211</v>
+      </c>
+      <c r="T10" s="6"/>
       <c r="U10" s="3">
         <f>_xlfn.STDEV.S(E242:E271)</f>
         <v>2.3900492788234193</v>
@@ -1339,16 +1339,16 @@
         <f>AVERAGE(E242:E271)</f>
         <v>5.4040027601527552</v>
       </c>
-      <c r="W10" s="5">
-        <f>V10-1.96*U10/SQRT(30)</f>
-        <v>4.5487346098265347</v>
-      </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5">
-        <f>V10+1.96*U10/SQRT(30)</f>
-        <v>6.2592709104789757</v>
-      </c>
-      <c r="Z10" s="5"/>
+      <c r="W10" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5116438992256533</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6">
+        <f t="shared" si="3"/>
+        <v>6.296361621079857</v>
+      </c>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1396,16 +1396,16 @@
         <f>AVERAGE(F272:F301)</f>
         <v>6.6541553487678975</v>
       </c>
-      <c r="Q11" s="5">
-        <f>P11-1.96*O11/SQRT(30)</f>
-        <v>5.7337928699017962</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
-        <f>P11+1.96*O11/SQRT(30)</f>
-        <v>7.5745178276339988</v>
-      </c>
-      <c r="T11" s="5"/>
+      <c r="Q11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6938791909713782</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6144315065644168</v>
+      </c>
+      <c r="T11" s="6"/>
       <c r="U11" s="3">
         <f>_xlfn.STDEV.S(E272:E301)</f>
         <v>4.1517203192406162</v>
@@ -1414,16 +1414,16 @@
         <f>AVERAGE(E272:E301)</f>
         <v>14.933333333333334</v>
       </c>
-      <c r="W11" s="5">
-        <f>V11-1.96*U11/SQRT(30)</f>
-        <v>13.447659297416919</v>
-      </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5">
-        <f>V11+1.96*U11/SQRT(30)</f>
-        <v>16.419007369249748</v>
-      </c>
-      <c r="Z11" s="5"/>
+      <c r="W11" s="6">
+        <f t="shared" si="2"/>
+        <v>13.383229556063402</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6">
+        <f t="shared" si="3"/>
+        <v>16.483437110603266</v>
+      </c>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1471,16 +1471,16 @@
         <f>AVERAGE(F302:F331)</f>
         <v>0.80058404124075444</v>
       </c>
-      <c r="Q12" s="5">
-        <f>P12-1.96*O12/SQRT(30)</f>
-        <v>0.76907523911364006</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5">
-        <f>P12+1.96*O12/SQRT(30)</f>
-        <v>0.83209284336786882</v>
-      </c>
-      <c r="T12" s="5"/>
+      <c r="Q12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76770878596016834</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.83345929652134054</v>
+      </c>
+      <c r="T12" s="6"/>
       <c r="U12" s="3">
         <f>_xlfn.STDEV.S(E302:E331)</f>
         <v>0</v>
@@ -1489,16 +1489,16 @@
         <f>AVERAGE(E302:E331)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="5">
-        <f>V12-1.96*U12/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5">
-        <f>V12+1.96*U12/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z12" s="5"/>
+      <c r="W12" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1546,16 +1546,16 @@
         <f>AVERAGE(F332:F361)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="5">
-        <f>P13-1.96*O13/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5">
-        <f>P13+1.96*O13/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="5"/>
+      <c r="Q13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="6"/>
       <c r="U13" s="3">
         <f>_xlfn.STDEV.S(E332:E361)</f>
         <v>0</v>
@@ -1564,16 +1564,16 @@
         <f>AVERAGE(E332:E361)</f>
         <v>1</v>
       </c>
-      <c r="W13" s="5">
-        <f>V13-1.96*U13/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5">
-        <f>V13+1.96*U13/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="5"/>
+      <c r="W13" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -1621,16 +1621,16 @@
         <f>AVERAGE(F362:F391)</f>
         <v>0.80058404124075444</v>
       </c>
-      <c r="Q14" s="5">
-        <f>P14-1.96*O14/SQRT(30)</f>
-        <v>0.76907523911364006</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5">
-        <f>P14+1.96*O14/SQRT(30)</f>
-        <v>0.83209284336786882</v>
-      </c>
-      <c r="T14" s="5"/>
+      <c r="Q14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76770878596016834</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.83345929652134054</v>
+      </c>
+      <c r="T14" s="6"/>
       <c r="U14" s="3">
         <f>_xlfn.STDEV.S(E362:E391)</f>
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <f>AVERAGE(E362:E391)</f>
         <v>1</v>
       </c>
-      <c r="W14" s="5">
-        <f>V14-1.96*U14/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5">
-        <f>V14+1.96*U14/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="5"/>
+      <c r="W14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1696,16 +1696,16 @@
         <f>AVERAGE(F392:F421)</f>
         <v>0.75235233666315315</v>
       </c>
-      <c r="Q15" s="5">
-        <f>P15-1.96*O15/SQRT(30)</f>
-        <v>0.7240076202367981</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5">
-        <f>P15+1.96*O15/SQRT(30)</f>
-        <v>0.78069705308950821</v>
-      </c>
-      <c r="T15" s="5"/>
+      <c r="Q15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72277838508565517</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78192628824065114</v>
+      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="3">
         <f>_xlfn.STDEV.S(E392:E421)</f>
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <f>AVERAGE(E392:E421)</f>
         <v>1</v>
       </c>
-      <c r="W15" s="5">
-        <f>V15-1.96*U15/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5">
-        <f>V15+1.96*U15/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z15" s="5"/>
+      <c r="W15" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1771,16 +1771,16 @@
         <f>AVERAGE(F422:F451)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="5">
-        <f>P16-1.96*O16/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5">
-        <f>P16+1.96*O16/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="T16" s="5"/>
+      <c r="Q16" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="3">
         <f>_xlfn.STDEV.S(E422:E451)</f>
         <v>0</v>
@@ -1789,16 +1789,16 @@
         <f>AVERAGE(E422:E451)</f>
         <v>1</v>
       </c>
-      <c r="W16" s="5">
-        <f>V16-1.96*U16/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5">
-        <f>V16+1.96*U16/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z16" s="5"/>
+      <c r="W16" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -1846,16 +1846,16 @@
         <f>AVERAGE(F452:F481)</f>
         <v>0.75235233666315315</v>
       </c>
-      <c r="Q17" s="5">
-        <f>P17-1.96*O17/SQRT(30)</f>
-        <v>0.7240076202367981</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5">
-        <f>P17+1.96*O17/SQRT(30)</f>
-        <v>0.78069705308950821</v>
-      </c>
-      <c r="T17" s="5"/>
+      <c r="Q17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72277838508565517</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78192628824065114</v>
+      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="3">
         <f>_xlfn.STDEV.S(E452:E481)</f>
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <f>AVERAGE(E452:E481)</f>
         <v>1</v>
       </c>
-      <c r="W17" s="5">
-        <f>V17-1.96*U17/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5">
-        <f>V17+1.96*U17/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="5"/>
+      <c r="W17" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -1921,16 +1921,16 @@
         <f>AVERAGE(F482:F511)</f>
         <v>0.7783580943550521</v>
       </c>
-      <c r="Q18" s="5">
-        <f>P18-1.96*O18/SQRT(30)</f>
-        <v>0.74916474214427009</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5">
-        <f>P18+1.96*O18/SQRT(30)</f>
-        <v>0.80755144656583411</v>
-      </c>
-      <c r="T18" s="5"/>
+      <c r="Q18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.74789870391063928</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80881748479946491</v>
+      </c>
+      <c r="T18" s="6"/>
       <c r="U18" s="3">
         <f>_xlfn.STDEV.S(E482:E511)</f>
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <f>AVERAGE(E482:E511)</f>
         <v>1</v>
       </c>
-      <c r="W18" s="5">
-        <f>V18-1.96*U18/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5">
-        <f>V18+1.96*U18/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="5"/>
+      <c r="W18" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -1996,16 +1996,16 @@
         <f>AVERAGE(F512:F541)</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="5">
-        <f>P19-1.96*O19/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5">
-        <f>P19+1.96*O19/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="T19" s="5"/>
+      <c r="Q19" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="3">
         <f>_xlfn.STDEV.S(E512:E541)</f>
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <f>AVERAGE(E512:E541)</f>
         <v>1</v>
       </c>
-      <c r="W19" s="5">
-        <f>V19-1.96*U19/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5">
-        <f>V19+1.96*U19/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z19" s="5"/>
+      <c r="W19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="6"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -2071,16 +2071,16 @@
         <f>AVERAGE(F542:F571)</f>
         <v>0.7783580943550521</v>
       </c>
-      <c r="Q20" s="5">
-        <f>P20-1.96*O20/SQRT(30)</f>
-        <v>0.74916474214427009</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5">
-        <f>P20+1.96*O20/SQRT(30)</f>
-        <v>0.80755144656583411</v>
-      </c>
-      <c r="T20" s="5"/>
+      <c r="Q20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.74789870391063928</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.80881748479946491</v>
+      </c>
+      <c r="T20" s="6"/>
       <c r="U20" s="3">
         <f>_xlfn.STDEV.S(E542:E571)</f>
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <f>AVERAGE(E542:E571)</f>
         <v>1</v>
       </c>
-      <c r="W20" s="5">
-        <f>V20-1.96*U20/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5">
-        <f>V20+1.96*U20/SQRT(30)</f>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="5"/>
+      <c r="W20" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -2146,16 +2146,16 @@
         <f>AVERAGE(F572:F601)</f>
         <v>1.2550504527107436</v>
       </c>
-      <c r="Q21" s="5">
-        <f>P21-1.96*O21/SQRT(30)</f>
-        <v>1.0258928312351301</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5">
-        <f>P21+1.96*O21/SQRT(30)</f>
-        <v>1.484208074186357</v>
-      </c>
-      <c r="T21" s="5"/>
+      <c r="Q21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0159548731609327</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4941460322605544</v>
+      </c>
+      <c r="T21" s="6"/>
       <c r="U21" s="3">
         <f>_xlfn.STDEV.S(E572:E601)</f>
         <v>1.6846159902134246</v>
@@ -2164,16 +2164,16 @@
         <f>AVERAGE(E572:E601)</f>
         <v>5.7</v>
       </c>
-      <c r="W21" s="5">
-        <f>V21-1.96*U21/SQRT(30)</f>
-        <v>5.0971679099984541</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5">
-        <f>V21+1.96*U21/SQRT(30)</f>
-        <v>6.3028320900015462</v>
-      </c>
-      <c r="Z21" s="5"/>
+      <c r="W21" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0710246816055298</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6">
+        <f t="shared" si="3"/>
+        <v>6.3289753183944706</v>
+      </c>
+      <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -2221,16 +2221,16 @@
         <f>AVERAGE(F602:F631)</f>
         <v>1.8262076376463547</v>
       </c>
-      <c r="Q22" s="5">
-        <f>P22-1.96*O22/SQRT(30)</f>
-        <v>1.06993208885522</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5">
-        <f>P22+1.96*O22/SQRT(30)</f>
-        <v>2.5824831864374893</v>
-      </c>
-      <c r="T22" s="5"/>
+      <c r="Q22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.037134424749482</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6152808505432272</v>
+      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="3">
         <f>_xlfn.STDEV.S(E602:E631)</f>
         <v>3.2098984837315441</v>
@@ -2239,16 +2239,16 @@
         <f>AVERAGE(E602:E631)</f>
         <v>6.8</v>
       </c>
-      <c r="W22" s="5">
-        <f>V22-1.96*U22/SQRT(30)</f>
-        <v>5.6513525795302879</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5">
-        <f>V22+1.96*U22/SQRT(30)</f>
-        <v>7.9486474204697117</v>
-      </c>
-      <c r="Z22" s="5"/>
+      <c r="W22" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6015387883364482</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9984612116635514</v>
+      </c>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -2296,16 +2296,16 @@
         <f>AVERAGE(F632:F661)</f>
         <v>1.2416027861518375</v>
       </c>
-      <c r="Q23" s="5">
-        <f>P23-1.96*O23/SQRT(30)</f>
-        <v>0.89250880608630001</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5">
-        <f>P23+1.96*O23/SQRT(30)</f>
-        <v>1.590696766217375</v>
-      </c>
-      <c r="T23" s="5"/>
+      <c r="Q23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8773695263385598</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6058360459651153</v>
+      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="3">
         <f>_xlfn.STDEV.S(E632:E661)</f>
         <v>2.5179813114988496</v>
@@ -2314,16 +2314,16 @@
         <f>AVERAGE(E632:E661)</f>
         <v>6.0666666666666664</v>
       </c>
-      <c r="W23" s="5">
-        <f>V23-1.96*U23/SQRT(30)</f>
-        <v>5.1656186263928827</v>
-      </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5">
-        <f>V23+1.96*U23/SQRT(30)</f>
-        <v>6.9677147069404501</v>
-      </c>
-      <c r="Z23" s="5"/>
+      <c r="W23" s="6">
+        <f t="shared" si="2"/>
+        <v>5.1265425634218262</v>
+      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="3"/>
+        <v>7.0067907699115066</v>
+      </c>
+      <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -2371,16 +2371,16 @@
         <f>AVERAGE(F662:F691)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="5">
-        <f>P24-1.96*O24/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5">
-        <f>P24+1.96*O24/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="5"/>
+      <c r="Q24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6"/>
       <c r="U24" s="3">
         <f>_xlfn.STDEV.S(E662:E691)</f>
         <v>0</v>
@@ -2389,16 +2389,16 @@
         <f>AVERAGE(E662:E691)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="5">
-        <f>V24-1.96*U24/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5">
-        <f>V24+1.96*U24/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5"/>
+      <c r="W24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2446,16 +2446,16 @@
         <f>AVERAGE(F692:F721)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="5">
-        <f>P25-1.96*O25/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5">
-        <f>P25+1.96*O25/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="5"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="6"/>
       <c r="U25" s="3">
         <f>_xlfn.STDEV.S(E692:E721)</f>
         <v>0</v>
@@ -2464,16 +2464,16 @@
         <f>AVERAGE(E692:E721)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="5">
-        <f>V25-1.96*U25/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5">
-        <f>V25+1.96*U25/SQRT(30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5"/>
+      <c r="W25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -27008,12 +27008,6 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="Q9:R9"/>
@@ -27024,6 +27018,12 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="W24:X24"/>
